--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_egy.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_egy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16160" windowHeight="17780"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
@@ -1052,10 +1052,10 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
@@ -1212,12 +1212,13 @@
         <v>0.079</v>
       </c>
     </row>
-    <row r="20" ht="28.75" spans="1:2">
+    <row r="20" ht="29.25" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>1e-6</v>
+      <c r="B20" s="2">
+        <f>10^(-7)</f>
+        <v>1e-7</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1236,7 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -1418,7 +1419,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="19.775" customWidth="1"/>
   </cols>

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_egy.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_egy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="15780" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1129,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1.171</v>
+        <v>2.285</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.323</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="15" spans="1:2">
